--- a/Unverified multiformat sources/Exports Nantes 1761.xlsx
+++ b/Unverified multiformat sources/Exports Nantes 1761.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumedaudin/Documents/Recherche/Commerce International Français XVIIIe.xls/Balance du commerce/Retranscriptions_Commerce_France/toflit18_data_GIT/Unverified multiformat sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECF45DA-0381-FD45-A8E7-A315D826BB82}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42B4554-43E0-E64B-B405-C0E64EBD7223}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1203,10 +1203,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A241" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="W2" sqref="W2"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
